--- a/res/HDAnet_4HAM.xlsx
+++ b/res/HDAnet_4HAM.xlsx
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3350725882059872</v>
+        <v>0.3429207408785495</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6034527943926208</v>
+        <v>0.5916721912709225</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5756138392857143</v>
+        <v>0.5939096361007274</v>
       </c>
       <c r="F2" t="n">
-        <v>30.72849154472351</v>
+        <v>29.98188233375549</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.226756683000102</v>
+        <v>0.229210803391823</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7043740637859367</v>
+        <v>0.7033190309076628</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3849080938068297</v>
+        <v>0.547677718983633</v>
       </c>
       <c r="F3" t="n">
-        <v>60.94507217407227</v>
+        <v>59.97080421447754</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1990079704357428</v>
+        <v>0.1949366889792502</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7403843104425013</v>
+        <v>0.7426976932206807</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5648108756188119</v>
+        <v>0.5952034975500101</v>
       </c>
       <c r="F4" t="n">
-        <v>91.22263956069946</v>
+        <v>89.99141502380371</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1748852443142873</v>
+        <v>0.1668247902913055</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7702716410985375</v>
+        <v>0.7867942987821832</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6797920823651242</v>
+        <v>0.5856908434784805</v>
       </c>
       <c r="F5" t="n">
-        <v>121.2648260593414</v>
+        <v>120.006110906601</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15525652724001</v>
+        <v>0.1545654027760841</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8004090994793694</v>
+        <v>0.799370520943391</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6308808834486765</v>
+        <v>0.5001035957390382</v>
       </c>
       <c r="F6" t="n">
-        <v>151.3480927944183</v>
+        <v>150.0379226207733</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.141649743354288</v>
+        <v>0.140055437666194</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8165520039759773</v>
+        <v>0.8198996752140911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5733029636669024</v>
+        <v>0.7978401176374015</v>
       </c>
       <c r="F7" t="n">
-        <v>181.3952789306641</v>
+        <v>180.0512735843658</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1337799559009822</v>
+        <v>0.1293218162631469</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8256016750194628</v>
+        <v>0.8323981329589056</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6418342089310972</v>
+        <v>0.6279774402025662</v>
       </c>
       <c r="F8" t="n">
-        <v>211.39031457901</v>
+        <v>210.0573310852051</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1238476516277978</v>
+        <v>0.1225224324890313</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8389206776886504</v>
+        <v>0.8423896657607185</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5099075018311781</v>
+        <v>0.6670438867069105</v>
       </c>
       <c r="F9" t="n">
-        <v>241.4031975269318</v>
+        <v>240.0627846717834</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1138372538200191</v>
+        <v>0.1119865184746256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.852870321536312</v>
+        <v>0.8554307909727242</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5864588332238836</v>
+        <v>0.6659838556400283</v>
       </c>
       <c r="F10" t="n">
-        <v>271.3973894119263</v>
+        <v>270.0439801216125</v>
       </c>
     </row>
     <row r="11">
@@ -648,16 +648,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1064892751481942</v>
+        <v>0.1036790168415298</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8609956712589668</v>
+        <v>0.8658541009217038</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6006372420564761</v>
+        <v>0.6579412744367549</v>
       </c>
       <c r="F11" t="n">
-        <v>301.323986530304</v>
+        <v>300.0217192173004</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1002250205755883</v>
+        <v>0.09761276938609921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.868715038595479</v>
+        <v>0.8726821642314964</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6614510980753687</v>
+        <v>0.6663301613962417</v>
       </c>
       <c r="F12" t="n">
-        <v>331.2810544967651</v>
+        <v>329.952850818634</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09355090022574329</v>
+        <v>0.09294972725070465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8767850517676417</v>
+        <v>0.8789469242652783</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6285810580420287</v>
+        <v>0.700554049744898</v>
       </c>
       <c r="F13" t="n">
-        <v>361.2391591072083</v>
+        <v>359.8996198177338</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08949398957903444</v>
+        <v>0.08731929336646597</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8824096672899405</v>
+        <v>0.8857074324535673</v>
       </c>
       <c r="E14" t="n">
-        <v>0.620829334208931</v>
+        <v>0.6789923232597495</v>
       </c>
       <c r="F14" t="n">
-        <v>391.17134141922</v>
+        <v>389.8400888442993</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08325736732184075</v>
+        <v>0.08021470953073423</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8898413280077018</v>
+        <v>0.8941983618208864</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6392816099211962</v>
+        <v>0.6676263907481309</v>
       </c>
       <c r="F15" t="n">
-        <v>421.0953462123871</v>
+        <v>419.7933850288391</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08034688469824414</v>
+        <v>0.07589943487735146</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8932929385565535</v>
+        <v>0.8994333406898182</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6119199033264295</v>
+        <v>0.6520532872802587</v>
       </c>
       <c r="F16" t="n">
-        <v>451.0500330924988</v>
+        <v>449.7403080463409</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +768,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07309477575306021</v>
+        <v>0.07440524704612243</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9021605800443474</v>
+        <v>0.9009023387539621</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6674933935517277</v>
+        <v>0.719165566907456</v>
       </c>
       <c r="F17" t="n">
-        <v>481.0191645622253</v>
+        <v>479.6800923347473</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07106031152630372</v>
+        <v>0.06991493925249219</v>
       </c>
       <c r="D18" t="n">
-        <v>0.903906260860952</v>
+        <v>0.9063760413480787</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6887549883814912</v>
+        <v>0.7143153130682967</v>
       </c>
       <c r="F18" t="n">
-        <v>511.0298261642456</v>
+        <v>509.6480507850647</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06671113514770279</v>
+        <v>0.06658015832589173</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9093574812844075</v>
+        <v>0.9106272894886838</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6412846582011518</v>
+        <v>0.6674543231587189</v>
       </c>
       <c r="F19" t="n">
-        <v>541.1202437877655</v>
+        <v>539.5964336395264</v>
       </c>
     </row>
     <row r="20">
@@ -828,16 +828,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06347393457668679</v>
+        <v>0.06405265016191987</v>
       </c>
       <c r="D20" t="n">
-        <v>0.913406552803342</v>
+        <v>0.9132660120843297</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6651833072337846</v>
+        <v>0.6933416157304506</v>
       </c>
       <c r="F20" t="n">
-        <v>571.175302028656</v>
+        <v>569.5470037460327</v>
       </c>
     </row>
     <row r="21">
@@ -848,16 +848,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06057936135852045</v>
+        <v>0.05991648072605237</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9170985705249403</v>
+        <v>0.9181306867944725</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6140314804758537</v>
+        <v>0.711349317728329</v>
       </c>
       <c r="F21" t="n">
-        <v>601.2961874008179</v>
+        <v>599.5038216114044</v>
       </c>
     </row>
     <row r="22">
@@ -868,16 +868,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05945172926223245</v>
+        <v>0.05726822008878724</v>
       </c>
       <c r="D22" t="n">
-        <v>0.917912435963827</v>
+        <v>0.9211960818898404</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6501844201480097</v>
+        <v>0.6822414802864215</v>
       </c>
       <c r="F22" t="n">
-        <v>631.3451585769653</v>
+        <v>629.5409064292908</v>
       </c>
     </row>
     <row r="23">
@@ -888,16 +888,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05690717733685912</v>
+        <v>0.06437297279081163</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9207622954665518</v>
+        <v>0.9150166346340989</v>
       </c>
       <c r="E23" t="n">
-        <v>0.610791795059608</v>
+        <v>0.6931859261340675</v>
       </c>
       <c r="F23" t="n">
-        <v>661.4564464092255</v>
+        <v>659.5084979534149</v>
       </c>
     </row>
     <row r="24">
@@ -908,16 +908,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05527834549586844</v>
+        <v>0.05453297540504861</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9227813464452539</v>
+        <v>0.9244465476074626</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6441689609011921</v>
+        <v>0.6876369437007476</v>
       </c>
       <c r="F24" t="n">
-        <v>691.4500768184662</v>
+        <v>689.4651825428009</v>
       </c>
     </row>
     <row r="25">
@@ -928,16 +928,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05160659013635781</v>
+        <v>0.0536898749319669</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9273311621566201</v>
+        <v>0.9252392341899294</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6678179935340472</v>
+        <v>0.6803921483506769</v>
       </c>
       <c r="F25" t="n">
-        <v>721.429594039917</v>
+        <v>719.4138462543488</v>
       </c>
     </row>
     <row r="26">
@@ -948,16 +948,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05108504257182659</v>
+        <v>0.05077641877556367</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9276542211741645</v>
+        <v>0.9288174834392203</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6300130471433623</v>
+        <v>0.7047373443498687</v>
       </c>
       <c r="F26" t="n">
-        <v>751.3670401573181</v>
+        <v>749.3807938098907</v>
       </c>
     </row>
     <row r="27">
@@ -968,16 +968,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04956901617530906</v>
+        <v>0.04858572772965444</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9295265406912083</v>
+        <v>0.9311709974350776</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7051256803773489</v>
+        <v>0.6719466290538493</v>
       </c>
       <c r="F27" t="n">
-        <v>781.3786978721619</v>
+        <v>779.3659360408783</v>
       </c>
     </row>
     <row r="28">
@@ -988,16 +988,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04862205503503373</v>
+        <v>0.04842015441090924</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9306201299491186</v>
+        <v>0.9311645351686315</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6443982528035966</v>
+        <v>0.7137489896948879</v>
       </c>
       <c r="F28" t="n">
-        <v>811.4035544395447</v>
+        <v>809.3259053230286</v>
       </c>
     </row>
     <row r="29">
@@ -1008,16 +1008,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04691618877876682</v>
+        <v>0.04673322742901316</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9322848423684869</v>
+        <v>0.9332621651351276</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6711470672736917</v>
+        <v>0.7549775286042635</v>
       </c>
       <c r="F29" t="n">
-        <v>841.4422073364258</v>
+        <v>839.2765898704529</v>
       </c>
     </row>
     <row r="30">
@@ -1028,16 +1028,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04761031868915792</v>
+        <v>0.04494961103480258</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9313952760940889</v>
+        <v>0.9353259632361118</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6516702790336432</v>
+        <v>0.7025391414300869</v>
       </c>
       <c r="F30" t="n">
-        <v>871.5046343803406</v>
+        <v>869.2225103378296</v>
       </c>
     </row>
     <row r="31">
@@ -1048,16 +1048,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04392239088014946</v>
+        <v>0.04623841187772049</v>
       </c>
       <c r="D31" t="n">
-        <v>0.936023507878969</v>
+        <v>0.934284669462131</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6638949708905839</v>
+        <v>0.7098502380531421</v>
       </c>
       <c r="F31" t="n">
-        <v>901.4974331855774</v>
+        <v>899.1701047420502</v>
       </c>
     </row>
     <row r="32">
@@ -1068,16 +1068,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04311957811221115</v>
+        <v>0.04407698202279348</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9369656411610966</v>
+        <v>0.9360058045271924</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6613058667154981</v>
+        <v>0.6985557372701556</v>
       </c>
       <c r="F32" t="n">
-        <v>931.5316841602325</v>
+        <v>929.1090378761292</v>
       </c>
     </row>
     <row r="33">
@@ -1088,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04215866193297124</v>
+        <v>0.04280155312462788</v>
       </c>
       <c r="D33" t="n">
-        <v>0.938018013106128</v>
+        <v>0.9377493131533948</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6677116352419681</v>
+        <v>0.7415801329814103</v>
       </c>
       <c r="F33" t="n">
-        <v>961.4908468723297</v>
+        <v>959.053971529007</v>
       </c>
     </row>
     <row r="34">
@@ -1108,16 +1108,16 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0413059276358633</v>
+        <v>0.04139928828305704</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9391463031057109</v>
+        <v>0.9394627912472892</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6718931539199838</v>
+        <v>0.7063090397049909</v>
       </c>
       <c r="F34" t="n">
-        <v>991.6242523193359</v>
+        <v>989.0005178451538</v>
       </c>
     </row>
     <row r="35">
@@ -1128,16 +1128,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04055648360005516</v>
+        <v>0.04022442184043516</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9398382543582828</v>
+        <v>0.9406534231114108</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6951011646923621</v>
+        <v>0.7257258410790058</v>
       </c>
       <c r="F35" t="n">
-        <v>1021.611348152161</v>
+        <v>1018.962103366852</v>
       </c>
     </row>
     <row r="36">
@@ -1148,16 +1148,16 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04151201162903445</v>
+        <v>0.03947422292073351</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9384785717761219</v>
+        <v>0.9415677523563921</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6839489353909881</v>
+        <v>0.7240057571605375</v>
       </c>
       <c r="F36" t="n">
-        <v>1051.566592216492</v>
+        <v>1048.918765544891</v>
       </c>
     </row>
     <row r="37">
@@ -1168,16 +1168,16 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03892065403977921</v>
+        <v>0.03892599364960875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9416360677445365</v>
+        <v>0.9420211971028193</v>
       </c>
       <c r="E37" t="n">
-        <v>0.658634280599616</v>
+        <v>0.715919172433825</v>
       </c>
       <c r="F37" t="n">
-        <v>1081.528985500336</v>
+        <v>1078.87570309639</v>
       </c>
     </row>
     <row r="38">
@@ -1188,16 +1188,16 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04153935536133171</v>
+        <v>0.03838614859600483</v>
       </c>
       <c r="D38" t="n">
-        <v>0.939560322596341</v>
+        <v>0.9426063308923706</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6950088164907052</v>
+        <v>0.7542770240831481</v>
       </c>
       <c r="F38" t="n">
-        <v>1111.485303163528</v>
+        <v>1108.821938514709</v>
       </c>
     </row>
     <row r="39">
@@ -1208,16 +1208,16 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03856791095041774</v>
+        <v>0.03972775702255623</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9421223125660346</v>
+        <v>0.9408618990852472</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6709302068599717</v>
+        <v>0.7241267175186906</v>
       </c>
       <c r="F39" t="n">
-        <v>1141.480372905731</v>
+        <v>1138.778694152832</v>
       </c>
     </row>
     <row r="40">
@@ -1228,16 +1228,16 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03899657632901818</v>
+        <v>0.03747644232794115</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9415123615011399</v>
+        <v>0.9437041016168047</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6949350168594666</v>
+        <v>0.734452746135583</v>
       </c>
       <c r="F40" t="n">
-        <v>1171.474766731262</v>
+        <v>1168.725167989731</v>
       </c>
     </row>
     <row r="41">
@@ -1248,16 +1248,16 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03927180221766152</v>
+        <v>0.03666597931602671</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9411140360861647</v>
+        <v>0.9446682826315131</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6769054117624773</v>
+        <v>0.7196298731435643</v>
       </c>
       <c r="F41" t="n">
-        <v>1201.508096218109</v>
+        <v>1198.681604862213</v>
       </c>
     </row>
     <row r="42">
@@ -1268,16 +1268,16 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03725134165150593</v>
+        <v>0.03656746447086334</v>
       </c>
       <c r="D42" t="n">
-        <v>0.94370974931185</v>
+        <v>0.9446881038689318</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6740471559911093</v>
+        <v>0.7237594952894524</v>
       </c>
       <c r="F42" t="n">
-        <v>1231.587459564209</v>
+        <v>1228.613374233246</v>
       </c>
     </row>
     <row r="43">
@@ -1288,16 +1288,16 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0359839987852268</v>
+        <v>0.03588473321793839</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9453525769129177</v>
+        <v>0.9455661575341989</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7313991383991716</v>
+        <v>0.7757016095423318</v>
       </c>
       <c r="F43" t="n">
-        <v>1261.674041032791</v>
+        <v>1258.562116384506</v>
       </c>
     </row>
     <row r="44">
@@ -1308,16 +1308,16 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03574974093921178</v>
+        <v>0.03557282503521735</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9454448407002447</v>
+        <v>0.9459193013888116</v>
       </c>
       <c r="E44" t="n">
-        <v>0.696773298583047</v>
+        <v>0.748464217834411</v>
       </c>
       <c r="F44" t="n">
-        <v>1291.700716733932</v>
+        <v>1288.520869016647</v>
       </c>
     </row>
     <row r="45">
@@ -1328,16 +1328,16 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03530152215132596</v>
+        <v>0.03433513405862231</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9460681507361118</v>
+        <v>0.9474439075272479</v>
       </c>
       <c r="E45" t="n">
-        <v>0.698507589917155</v>
+        <v>0.7236387322565164</v>
       </c>
       <c r="F45" t="n">
-        <v>1321.647023439407</v>
+        <v>1318.467126846313</v>
       </c>
     </row>
     <row r="46">
@@ -1348,16 +1348,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03421500834765811</v>
+        <v>0.03455538349353</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9473647311870934</v>
+        <v>0.9470411291219485</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6915479295059608</v>
+        <v>0.7235015912305516</v>
       </c>
       <c r="F46" t="n">
-        <v>1351.599919319153</v>
+        <v>1348.426823616028</v>
       </c>
     </row>
     <row r="47">
@@ -1368,16 +1368,16 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>0.03374503514341178</v>
+        <v>0.03401069805959914</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9479701206521437</v>
+        <v>0.9476327794827059</v>
       </c>
       <c r="E47" t="n">
-        <v>0.717932678950293</v>
+        <v>0.7275501127121641</v>
       </c>
       <c r="F47" t="n">
-        <v>1381.580499887466</v>
+        <v>1378.421416759491</v>
       </c>
     </row>
     <row r="48">
@@ -1388,16 +1388,16 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03328849815786372</v>
+        <v>0.03374801178231876</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9483923944663015</v>
+        <v>0.9479714782711449</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7145179660663771</v>
+        <v>0.7257615569433219</v>
       </c>
       <c r="F48" t="n">
-        <v>1411.616364479065</v>
+        <v>1408.391887187958</v>
       </c>
     </row>
     <row r="49">
@@ -1408,16 +1408,16 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>0.03290294403113851</v>
+        <v>0.03347491458748602</v>
       </c>
       <c r="D49" t="n">
-        <v>0.948940655323778</v>
+        <v>0.948315498926069</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7061442731486158</v>
+        <v>0.7363407538139018</v>
       </c>
       <c r="F49" t="n">
-        <v>1444.097035884857</v>
+        <v>1438.379005670547</v>
       </c>
     </row>
     <row r="50">
@@ -1428,16 +1428,16 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03291244402893233</v>
+        <v>0.03285021405941134</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9489068777630262</v>
+        <v>0.9491186120224656</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6967713253308749</v>
+        <v>0.7445482988987674</v>
       </c>
       <c r="F50" t="n">
-        <v>1475.397368431091</v>
+        <v>1468.326894760132</v>
       </c>
     </row>
     <row r="51">
@@ -1448,16 +1448,16 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>0.03227920742954155</v>
+        <v>0.03242745443325926</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9496933192980871</v>
+        <v>0.9496651351276205</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6853025863810871</v>
+        <v>0.7506815613002626</v>
       </c>
       <c r="F51" t="n">
-        <v>1505.650774478912</v>
+        <v>1498.29753613472</v>
       </c>
     </row>
   </sheetData>

--- a/res/HDAnet_4HAM.xlsx
+++ b/res/HDAnet_4HAM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3429207408785495</v>
+        <v>0.3476511389423131</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5916721912709225</v>
+        <v>0.5933813641638914</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5939096361007274</v>
+        <v>0.414056999449945</v>
       </c>
       <c r="F2" t="n">
-        <v>29.98188233375549</v>
+        <v>107.2707650661469</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229210803391823</v>
+        <v>0.2174704997351124</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7033190309076628</v>
+        <v>0.7204872779796145</v>
       </c>
       <c r="E3" t="n">
-        <v>0.547677718983633</v>
+        <v>0.3962607719105244</v>
       </c>
       <c r="F3" t="n">
-        <v>59.97080421447754</v>
+        <v>215.544403553009</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1949366889792502</v>
+        <v>0.1846993728781916</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7426976932206807</v>
+        <v>0.7694787093803613</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5952034975500101</v>
+        <v>0.4573474743307664</v>
       </c>
       <c r="F4" t="n">
-        <v>89.99141502380371</v>
+        <v>319.3331861495972</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1668247902913055</v>
+        <v>0.1572551492611784</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7867942987821832</v>
+        <v>0.8034462515137754</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5856908434784805</v>
+        <v>0.4689493376420976</v>
       </c>
       <c r="F5" t="n">
-        <v>120.006110906601</v>
+        <v>423.8066155910492</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1545654027760841</v>
+        <v>0.1479220970125224</v>
       </c>
       <c r="D6" t="n">
-        <v>0.799370520943391</v>
+        <v>0.8151559977041074</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5001035957390382</v>
+        <v>0.4316956018518519</v>
       </c>
       <c r="F6" t="n">
-        <v>150.0379226207733</v>
+        <v>526.9627301692963</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.140055437666194</v>
+        <v>0.1328953464771811</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8198996752140911</v>
+        <v>0.8310604942476536</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7978401176374015</v>
+        <v>0.4358379744224423</v>
       </c>
       <c r="F7" t="n">
-        <v>180.0512735843658</v>
+        <v>628.9568495750427</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1293218162631469</v>
+        <v>0.1300794548007383</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8323981329589056</v>
+        <v>0.8356191656574831</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6279774402025662</v>
+        <v>0.4574675123762376</v>
       </c>
       <c r="F8" t="n">
-        <v>210.0573310852051</v>
+        <v>730.7750775814056</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1225224324890313</v>
+        <v>0.117141400841991</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8423896657607185</v>
+        <v>0.8498281391916439</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6670438867069105</v>
+        <v>0.48337882746608</v>
       </c>
       <c r="F9" t="n">
-        <v>240.0627846717834</v>
+        <v>832.6797602176666</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1119865184746256</v>
+        <v>0.1076261355701519</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8554307909727242</v>
+        <v>0.8619517925623171</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6659838556400283</v>
+        <v>0.426829162082875</v>
       </c>
       <c r="F10" t="n">
-        <v>270.0439801216125</v>
+        <v>934.5617580413818</v>
       </c>
     </row>
     <row r="11">
@@ -648,16 +648,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1036790168415298</v>
+        <v>0.09932480760588633</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8658541009217038</v>
+        <v>0.8716432977596125</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6579412744367549</v>
+        <v>0.5519556747341401</v>
       </c>
       <c r="F11" t="n">
-        <v>300.0217192173004</v>
+        <v>1038.470239162445</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09761276938609921</v>
+        <v>0.09437053810997945</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8726821642314964</v>
+        <v>0.8772217018619437</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6663301613962417</v>
+        <v>0.5504376948111478</v>
       </c>
       <c r="F12" t="n">
-        <v>329.952850818634</v>
+        <v>1144.42643737793</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09294972725070465</v>
+        <v>0.08699822088840548</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8789469242652783</v>
+        <v>0.8866608953981229</v>
       </c>
       <c r="E13" t="n">
-        <v>0.700554049744898</v>
+        <v>0.4985963283828383</v>
       </c>
       <c r="F13" t="n">
-        <v>359.8996198177338</v>
+        <v>1251.091122150421</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08731929336646597</v>
+        <v>0.08226706193156073</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8857074324535673</v>
+        <v>0.8923145782874154</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6789923232597495</v>
+        <v>0.4493529405023836</v>
       </c>
       <c r="F14" t="n">
-        <v>389.8400888442993</v>
+        <v>1353.352519989014</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08021470953073423</v>
+        <v>0.08040516159677376</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8941983618208864</v>
+        <v>0.8944655899939449</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6676263907481309</v>
+        <v>0.5597686904107078</v>
       </c>
       <c r="F15" t="n">
-        <v>419.7933850288391</v>
+        <v>1455.660647392273</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07589943487735146</v>
+        <v>0.07557568680850296</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8994333406898182</v>
+        <v>0.9002966999697245</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6520532872802587</v>
+        <v>0.5519580239273928</v>
       </c>
       <c r="F16" t="n">
-        <v>449.7403080463409</v>
+        <v>1558.014206886292</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +768,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07440524704612243</v>
+        <v>0.07140133832391017</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9009023387539621</v>
+        <v>0.9055817470229085</v>
       </c>
       <c r="E17" t="n">
-        <v>0.719165566907456</v>
+        <v>0.6463437385405207</v>
       </c>
       <c r="F17" t="n">
-        <v>479.6800923347473</v>
+        <v>1660.417122602463</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06991493925249219</v>
+        <v>0.07079116062182497</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9063760413480787</v>
+        <v>0.9064938282117267</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7143153130682967</v>
+        <v>0.5162136734506784</v>
       </c>
       <c r="F18" t="n">
-        <v>509.6480507850647</v>
+        <v>1762.745751857758</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06658015832589173</v>
+        <v>0.06461969005801697</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9106272894886838</v>
+        <v>0.9138291105308306</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6674543231587189</v>
+        <v>0.5473536051521819</v>
       </c>
       <c r="F19" t="n">
-        <v>539.5964336395264</v>
+        <v>1865.073124170303</v>
       </c>
     </row>
     <row r="20">
@@ -828,16 +828,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06405265016191987</v>
+        <v>0.06129394735562379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9132660120843297</v>
+        <v>0.9177813414572611</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6933416157304506</v>
+        <v>0.567129686927026</v>
       </c>
       <c r="F20" t="n">
-        <v>569.5470037460327</v>
+        <v>1967.214275360107</v>
       </c>
     </row>
     <row r="21">
@@ -848,16 +848,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05991648072605237</v>
+        <v>0.05942326004563625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9181306867944725</v>
+        <v>0.9195203224341508</v>
       </c>
       <c r="E21" t="n">
-        <v>0.711349317728329</v>
+        <v>0.5429921273377337</v>
       </c>
       <c r="F21" t="n">
-        <v>599.5038216114044</v>
+        <v>2069.177493810654</v>
       </c>
     </row>
     <row r="22">
@@ -868,16 +868,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05726822008878724</v>
+        <v>0.05774702249495794</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9211960818898404</v>
+        <v>0.9213529997981633</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6822414802864215</v>
+        <v>0.4916929088742207</v>
       </c>
       <c r="F22" t="n">
-        <v>629.5409064292908</v>
+        <v>2170.041261911392</v>
       </c>
     </row>
     <row r="23">
@@ -888,16 +888,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06437297279081163</v>
+        <v>0.05709206513877785</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9150166346340989</v>
+        <v>0.9226644811534969</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6931859261340675</v>
+        <v>0.438700781536487</v>
       </c>
       <c r="F23" t="n">
-        <v>659.5084979534149</v>
+        <v>2272.051503419876</v>
       </c>
     </row>
     <row r="24">
@@ -908,16 +908,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05453297540504861</v>
+        <v>0.05276610692125575</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9244465476074626</v>
+        <v>0.9277466980775053</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6876369437007476</v>
+        <v>0.5385616061606161</v>
       </c>
       <c r="F24" t="n">
-        <v>689.4651825428009</v>
+        <v>2374.21676158905</v>
       </c>
     </row>
     <row r="25">
@@ -928,16 +928,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0536898749319669</v>
+        <v>0.04997426129329432</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9252392341899294</v>
+        <v>0.930980453375719</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6803921483506769</v>
+        <v>0.5742813760542721</v>
       </c>
       <c r="F25" t="n">
-        <v>719.4138462543488</v>
+        <v>2476.481543064117</v>
       </c>
     </row>
     <row r="26">
@@ -948,16 +948,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05077641877556367</v>
+        <v>0.04838053305564849</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9288174834392203</v>
+        <v>0.9325220601221113</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7047373443498687</v>
+        <v>0.5800037816281628</v>
       </c>
       <c r="F26" t="n">
-        <v>749.3807938098907</v>
+        <v>2578.770735740662</v>
       </c>
     </row>
     <row r="27">
@@ -968,16 +968,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04858572772965444</v>
+        <v>0.04540696133141297</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9311709974350776</v>
+        <v>0.9364164364466646</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6719466290538493</v>
+        <v>0.5756641341217456</v>
       </c>
       <c r="F27" t="n">
-        <v>779.3659360408783</v>
+        <v>2681.034093379974</v>
       </c>
     </row>
     <row r="28">
@@ -988,16 +988,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04842015441090924</v>
+        <v>0.04649511146123143</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9311645351686315</v>
+        <v>0.9346054565294177</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7137489896948879</v>
+        <v>0.6233751604327099</v>
       </c>
       <c r="F28" t="n">
-        <v>809.3259053230286</v>
+        <v>2783.388350248337</v>
       </c>
     </row>
     <row r="29">
@@ -1008,16 +1008,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04673322742901316</v>
+        <v>0.04339663304733645</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9332621651351276</v>
+        <v>0.9385463341406802</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7549775286042635</v>
+        <v>0.5236507036120279</v>
       </c>
       <c r="F29" t="n">
-        <v>839.2765898704529</v>
+        <v>2885.694930553436</v>
       </c>
     </row>
     <row r="30">
@@ -1028,16 +1028,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04494961103480258</v>
+        <v>0.04355201529141018</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9353259632361118</v>
+        <v>0.9383343267484106</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7025391414300869</v>
+        <v>0.6358277754858819</v>
       </c>
       <c r="F30" t="n">
-        <v>869.2225103378296</v>
+        <v>2987.980453491211</v>
       </c>
     </row>
     <row r="31">
@@ -1048,416 +1048,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04623841187772049</v>
+        <v>0.04190098057813151</v>
       </c>
       <c r="D31" t="n">
-        <v>0.934284669462131</v>
+        <v>0.9399728624230498</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7098502380531421</v>
+        <v>0.7355221511734507</v>
       </c>
       <c r="F31" t="n">
-        <v>899.1701047420502</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.04407698202279348</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.9360058045271924</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.6985557372701556</v>
-      </c>
-      <c r="F32" t="n">
-        <v>929.1090378761292</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.04280155312462788</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.9377493131533948</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.7415801329814103</v>
-      </c>
-      <c r="F33" t="n">
-        <v>959.053971529007</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.04139928828305704</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.9394627912472892</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.7063090397049909</v>
-      </c>
-      <c r="F34" t="n">
-        <v>989.0005178451538</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.04022442184043516</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.9406534231114108</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.7257258410790058</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1018.962103366852</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.03947422292073351</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.9415677523563921</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.7240057571605375</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1048.918765544891</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.03892599364960875</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.9420211971028193</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.715919172433825</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1078.87570309639</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.03838614859600483</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9426063308923706</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.7542770240831481</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1108.821938514709</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.03972775702255623</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.9408618990852472</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.7241267175186906</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1138.778694152832</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.03747644232794115</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.9437041016168047</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.734452746135583</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1168.725167989731</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.03666597931602671</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.9446682826315131</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.7196298731435643</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1198.681604862213</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.03656746447086334</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.9446881038689318</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.7237594952894524</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1228.613374233246</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.03588473321793839</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.9455661575341989</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.7757016095423318</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1258.562116384506</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.03557282503521735</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.9459193013888116</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.748464217834411</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1288.520869016647</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.03433513405862231</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.9474439075272479</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.7236387322565164</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1318.467126846313</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.03455538349353</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.9470411291219485</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.7235015912305516</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1348.426823616028</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.03401069805959914</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.9476327794827059</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.7275501127121641</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1378.421416759491</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.03374801178231876</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.9479714782711449</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.7257615569433219</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1408.391887187958</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.03347491458748602</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.948315498926069</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.7363407538139018</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1438.379005670547</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.03285021405941134</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.9491186120224656</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.7445482988987674</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1468.326894760132</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.03242745443325926</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9496651351276205</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.7506815613002626</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1498.29753613472</v>
+        <v>3090.348356962204</v>
       </c>
     </row>
   </sheetData>
